--- a/biology/Histoire de la zoologie et de la botanique/Enrico_Festa/Enrico_Festa.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Enrico_Festa/Enrico_Festa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,18 +490,20 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Enrico Luigi Festa (Moncalieri, 11 août 1868 – Moncalieri, 30 septembre 1939) est un naturaliste italien.
 Lors de ses nombreux voyages à but scientifique, qui l'ont conduit entre autres à Rhodes (alors colonie italienne avec tout le Dodécanèse), la Libye (idem), en Sardaigne et en Équateur, Festa a décrit et catalogué de nombreux animaux, parmi les insectes et les poissons en particulier.
 En son honneur ont été attribués les noms scientifiques de 
 Cichlasoma festae à une espèce de poissons sud-américaine du genre Cichlasoma ;
-Lepidoblepharis festae à une espèce de geckos de la famille des Sphaerodactylidae[1] ;
-Erythrolamprus festae à une espèce de serpents de la famille des Dipsadidae[1] ;
-Ptychoglossus festae à une espèce de sauriens de la famille des Gymnophthalmidae[1] ;
-Alopoglossus festae à  espèce de sauriens de la famille des Gymnophthalmidae[1] ;
-Anolis festae à une espèce de sauriens de la famille des Dactyloidae[1] ;
-Stenocercus festae à une espèce de sauriens de la famille des Tropiduridae[1] ;
+Lepidoblepharis festae à une espèce de geckos de la famille des Sphaerodactylidae ;
+Erythrolamprus festae à une espèce de serpents de la famille des Dipsadidae ;
+Ptychoglossus festae à une espèce de sauriens de la famille des Gymnophthalmidae ;
+Alopoglossus festae à  espèce de sauriens de la famille des Gymnophthalmidae ;
+Anolis festae à une espèce de sauriens de la famille des Dactyloidae ;
+Stenocercus festae à une espèce de sauriens de la famille des Tropiduridae ;
 Pristimantis festae à une espèce d'amphibiens de la famille des Craugastoridae ;
 Rhinella festae à une espèce d'amphibiens de la famille des Bufonidae ;
 Osteocephalus festae à une espèce d'amphibiens de la famille des Hylidae ;
